--- a/artfynd/A 20914-2022.xlsx
+++ b/artfynd/A 20914-2022.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98706813</v>
+        <v>98706814</v>
       </c>
       <c r="B3" t="n">
         <v>56278</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2K</t>
+          <t>4K</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>493006.8317251098</v>
+        <v>493221.9560413534</v>
       </c>
       <c r="R3" t="n">
-        <v>6816966.488453184</v>
+        <v>6817127.992668128</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>09:08</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>09:12</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>FLD0008a (Calluna AB) örninventering</t>
+          <t>Blev bortjagad av hanen från Noppimäckparet. FLD0008a (Calluna AB) örninventering</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,7 +923,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98706814</v>
+        <v>98706813</v>
       </c>
       <c r="B4" t="n">
         <v>56278</v>
@@ -963,7 +963,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4K</t>
+          <t>2K</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>493221.9560413534</v>
+        <v>493006.8317251098</v>
       </c>
       <c r="R4" t="n">
-        <v>6817127.992668128</v>
+        <v>6816966.488453184</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:08</t>
+          <t>11:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:12</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Blev bortjagad av hanen från Noppimäckparet. FLD0008a (Calluna AB) örninventering</t>
+          <t>FLD0008a (Calluna AB) örninventering</t>
         </is>
       </c>
       <c r="AD4" t="b">
